--- a/QCOM.xlsx
+++ b/QCOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Desktop\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB3E1ED-B9DB-46E2-B2ED-11655C5FCDDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A504F2-7C3D-4DFE-96A3-2E4DE387762A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7725" yWindow="750" windowWidth="18690" windowHeight="14445" xr2:uid="{EDE7FC58-ED31-490D-AEAC-D1F0975229E4}"/>
+    <workbookView xWindow="2520" yWindow="675" windowWidth="23355" windowHeight="14445" activeTab="1" xr2:uid="{EDE7FC58-ED31-490D-AEAC-D1F0975229E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -792,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94465037-65E4-4154-9611-9CF43E9C488B}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -956,11 +956,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C94B7CF-FE6E-4A50-8F0A-17561D9CF355}">
   <dimension ref="A1:CX26"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="X15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AF24" sqref="AF24"/>
+      <selection pane="bottomRight" activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1296,83 +1296,83 @@
         <v>9</v>
       </c>
       <c r="C5" s="4">
-        <f>+C4+C3</f>
+        <f t="shared" ref="C5:N5" si="4">+C4+C3</f>
         <v>10705</v>
       </c>
       <c r="D5" s="4">
-        <f>+D4+D3</f>
+        <f t="shared" si="4"/>
         <v>11164</v>
       </c>
       <c r="E5" s="4">
-        <f>+E4+E3</f>
+        <f t="shared" si="4"/>
         <v>10936</v>
       </c>
       <c r="F5" s="4">
-        <f>+F4+F3</f>
+        <f t="shared" si="4"/>
         <v>11396</v>
       </c>
       <c r="G5" s="4">
-        <f>+G4+G3</f>
+        <f t="shared" si="4"/>
         <v>9463</v>
       </c>
       <c r="H5" s="4">
-        <f>+H4+H3</f>
+        <f t="shared" si="4"/>
         <v>9275</v>
       </c>
       <c r="I5" s="4">
-        <f>+I4+I3</f>
+        <f t="shared" si="4"/>
         <v>8451</v>
       </c>
       <c r="J5" s="4">
-        <f>+J4+J3</f>
+        <f t="shared" si="4"/>
         <v>8631</v>
       </c>
       <c r="K5" s="4">
-        <f>+K4+K3</f>
+        <f t="shared" si="4"/>
         <v>9935</v>
       </c>
       <c r="L5" s="4">
-        <f>+L4+L3</f>
+        <f t="shared" si="4"/>
         <v>9389</v>
       </c>
       <c r="M5" s="4">
-        <f>+M4+M3</f>
+        <f t="shared" si="4"/>
         <v>9393</v>
       </c>
       <c r="N5" s="4">
-        <f>+N4+N3</f>
+        <f t="shared" si="4"/>
         <v>10244</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" ref="O5:R5" si="4">+O4+O3</f>
+        <f t="shared" ref="O5:R5" si="5">+O4+O3</f>
         <v>9915.1666666666679</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10014.318333333335</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10114.461516666668</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10215.606131833334</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" ref="S5" si="5">+S4+S3</f>
+        <f t="shared" ref="S5" si="6">+S4+S3</f>
         <v>10317.762193151668</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" ref="T5" si="6">+T4+T3</f>
+        <f t="shared" ref="T5" si="7">+T4+T3</f>
         <v>10420.939815083184</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" ref="U5" si="7">+U4+U3</f>
+        <f t="shared" ref="U5" si="8">+U4+U3</f>
         <v>10525.149213234015</v>
       </c>
       <c r="V5" s="4">
-        <f t="shared" ref="V5" si="8">+V4+V3</f>
+        <f t="shared" ref="V5" si="9">+V4+V3</f>
         <v>10630.400705366355</v>
       </c>
       <c r="Y5" s="4">
@@ -1441,31 +1441,31 @@
         <v>4362.6733333333332</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" ref="P6:R6" si="9">+P5-P7</f>
+        <f t="shared" ref="P6:R6" si="10">+P5-P7</f>
         <v>4406.3000666666667</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4450.3630673333337</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>4494.8666980066664</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" ref="S6" si="10">+S5-S7</f>
+        <f t="shared" ref="S6" si="11">+S5-S7</f>
         <v>4539.8153649867336</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" ref="T6" si="11">+T5-T7</f>
+        <f t="shared" ref="T6" si="12">+T5-T7</f>
         <v>4585.2135186366004</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" ref="U6" si="12">+U5-U7</f>
+        <f t="shared" ref="U6" si="13">+U5-U7</f>
         <v>4631.0656538229659</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" ref="V6" si="13">+V5-V7</f>
+        <f t="shared" ref="V6" si="14">+V5-V7</f>
         <v>4677.3763103611955</v>
       </c>
       <c r="Y6" s="2">
@@ -1494,83 +1494,83 @@
         <v>39</v>
       </c>
       <c r="C7" s="4">
-        <f>+C5-C6</f>
+        <f t="shared" ref="C7:N7" si="15">+C5-C6</f>
         <v>6402</v>
       </c>
       <c r="D7" s="4">
-        <f>+D5-D6</f>
+        <f t="shared" si="15"/>
         <v>6516</v>
       </c>
       <c r="E7" s="4">
-        <f>+E5-E6</f>
+        <f t="shared" si="15"/>
         <v>6120</v>
       </c>
       <c r="F7" s="4">
-        <f>+F5-F6</f>
+        <f t="shared" si="15"/>
         <v>6528</v>
       </c>
       <c r="G7" s="4">
-        <f>+G5-G6</f>
+        <f t="shared" si="15"/>
         <v>5419</v>
       </c>
       <c r="H7" s="4">
-        <f>+H5-H6</f>
+        <f t="shared" si="15"/>
         <v>5122</v>
       </c>
       <c r="I7" s="4">
-        <f>+I5-I6</f>
+        <f t="shared" si="15"/>
         <v>4659</v>
       </c>
       <c r="J7" s="4">
-        <f>+J5-J6</f>
+        <f t="shared" si="15"/>
         <v>4751</v>
       </c>
       <c r="K7" s="4">
-        <f>+K5-K6</f>
+        <f t="shared" si="15"/>
         <v>5623</v>
       </c>
       <c r="L7" s="4">
-        <f>+L5-L6</f>
+        <f t="shared" si="15"/>
         <v>5283</v>
       </c>
       <c r="M7" s="4">
-        <f>+M5-M6</f>
+        <f t="shared" si="15"/>
         <v>5219</v>
       </c>
       <c r="N7" s="4">
-        <f>+N5-N6</f>
+        <f t="shared" si="15"/>
         <v>5777</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" ref="O7:R7" si="14">+O5*0.56</f>
+        <f t="shared" ref="O7:R7" si="16">+O5*0.56</f>
         <v>5552.4933333333347</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5608.0182666666678</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5664.0984493333344</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>5720.7394338266677</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" ref="S7:V7" si="15">+S5*0.56</f>
+        <f t="shared" ref="S7:V7" si="17">+S5*0.56</f>
         <v>5777.9468281649342</v>
       </c>
       <c r="T7" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5835.7262964465835</v>
       </c>
       <c r="U7" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5894.0835594110495</v>
       </c>
       <c r="V7" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>5953.0243950051599</v>
       </c>
       <c r="Y7" s="4">
@@ -1639,31 +1639,31 @@
         <v>2158.8333333333335</v>
       </c>
       <c r="P8" s="2">
-        <f>+O8*1.01</f>
+        <f t="shared" ref="P8:R10" si="18">+O8*1.01</f>
         <v>2180.4216666666666</v>
       </c>
       <c r="Q8" s="2">
-        <f>+P8*1.01</f>
+        <f t="shared" si="18"/>
         <v>2202.2258833333335</v>
       </c>
       <c r="R8" s="2">
-        <f>+Q8*1.01</f>
+        <f t="shared" si="18"/>
         <v>2224.2481421666671</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" ref="S8:V8" si="16">+R8*1.01</f>
+        <f t="shared" ref="S8:V8" si="19">+R8*1.01</f>
         <v>2246.4906235883336</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2268.9555298242171</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2291.6450851224595</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>2314.5615359736839</v>
       </c>
       <c r="Y8" s="2">
@@ -1732,31 +1732,31 @@
         <v>651.08333333333337</v>
       </c>
       <c r="P9" s="2">
-        <f>+O9*1.01</f>
+        <f t="shared" si="18"/>
         <v>657.59416666666675</v>
       </c>
       <c r="Q9" s="2">
-        <f>+P9*1.01</f>
+        <f t="shared" si="18"/>
         <v>664.17010833333347</v>
       </c>
       <c r="R9" s="2">
-        <f>+Q9*1.01</f>
+        <f t="shared" si="18"/>
         <v>670.81180941666685</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" ref="S9:V9" si="17">+R9*1.01</f>
+        <f t="shared" ref="S9:V9" si="20">+R9*1.01</f>
         <v>677.51992751083355</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>684.29512678594187</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>691.13807805380134</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>698.04945883433936</v>
       </c>
       <c r="Y9" s="2">
@@ -1824,31 +1824,31 @@
         <v>75</v>
       </c>
       <c r="P10" s="2">
-        <f>+O10*1.01</f>
+        <f t="shared" si="18"/>
         <v>75.75</v>
       </c>
       <c r="Q10" s="2">
-        <f>+P10*1.01</f>
+        <f t="shared" si="18"/>
         <v>76.507500000000007</v>
       </c>
       <c r="R10" s="2">
-        <f>+Q10*1.01</f>
+        <f t="shared" si="18"/>
         <v>77.272575000000003</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" ref="S10:V10" si="18">+R10*1.01</f>
+        <f t="shared" ref="S10:V10" si="21">+R10*1.01</f>
         <v>78.04530075000001</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>78.82575375750001</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>79.614011295075017</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>80.410151408025769</v>
       </c>
       <c r="Y10" s="2">
@@ -1877,83 +1877,83 @@
         <v>34</v>
       </c>
       <c r="C11" s="2">
-        <f>+SUM(C8:C10)</f>
+        <f t="shared" ref="C11:N11" si="22">+SUM(C8:C10)</f>
         <v>2538</v>
       </c>
       <c r="D11" s="2">
-        <f>+SUM(D8:D10)</f>
+        <f t="shared" si="22"/>
         <v>2658</v>
       </c>
       <c r="E11" s="2">
-        <f>+SUM(E8:E10)</f>
+        <f t="shared" si="22"/>
         <v>1648</v>
       </c>
       <c r="F11" s="2">
-        <f>+SUM(F8:F10)</f>
+        <f t="shared" si="22"/>
         <v>2862</v>
       </c>
       <c r="G11" s="2">
-        <f>+SUM(G8:G10)</f>
+        <f t="shared" si="22"/>
         <v>2954</v>
       </c>
       <c r="H11" s="2">
-        <f>+SUM(H8:H10)</f>
+        <f t="shared" si="22"/>
         <v>3032</v>
       </c>
       <c r="I11" s="2">
-        <f>+SUM(I8:I10)</f>
+        <f t="shared" si="22"/>
         <v>2836</v>
       </c>
       <c r="J11" s="2">
-        <f>+SUM(J8:J10)</f>
+        <f t="shared" si="22"/>
         <v>3340</v>
       </c>
       <c r="K11" s="2">
-        <f>+SUM(K8:K10)</f>
+        <f t="shared" si="22"/>
         <v>2695</v>
       </c>
       <c r="L11" s="2">
-        <f>+SUM(L8:L10)</f>
+        <f t="shared" si="22"/>
         <v>2943</v>
       </c>
       <c r="M11" s="2">
-        <f>+SUM(M8:M10)</f>
+        <f t="shared" si="22"/>
         <v>2998</v>
       </c>
       <c r="N11" s="2">
-        <f>+SUM(N8:N10)</f>
+        <f t="shared" si="22"/>
         <v>3196</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" ref="O11:R11" si="19">+SUM(O8:O10)</f>
+        <f t="shared" ref="O11:R11" si="23">+SUM(O8:O10)</f>
         <v>2884.916666666667</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2913.7658333333334</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2942.9034916666674</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="23"/>
         <v>2972.3325265833337</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" ref="S11" si="20">+SUM(S8:S10)</f>
+        <f t="shared" ref="S11" si="24">+SUM(S8:S10)</f>
         <v>3002.0558518491671</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" ref="T11" si="21">+SUM(T8:T10)</f>
+        <f t="shared" ref="T11" si="25">+SUM(T8:T10)</f>
         <v>3032.0764103676593</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" ref="U11" si="22">+SUM(U8:U10)</f>
+        <f t="shared" ref="U11" si="26">+SUM(U8:U10)</f>
         <v>3062.3971744713363</v>
       </c>
       <c r="V11" s="2">
-        <f t="shared" ref="V11" si="23">+SUM(V8:V10)</f>
+        <f t="shared" ref="V11" si="27">+SUM(V8:V10)</f>
         <v>3093.0211462160491</v>
       </c>
       <c r="Y11" s="2">
@@ -1982,83 +1982,83 @@
         <v>33</v>
       </c>
       <c r="C12" s="2">
-        <f>+C7-C11</f>
+        <f t="shared" ref="C12:O12" si="28">+C7-C11</f>
         <v>3864</v>
       </c>
       <c r="D12" s="2">
-        <f>+D7-D11</f>
+        <f t="shared" si="28"/>
         <v>3858</v>
       </c>
       <c r="E12" s="2">
-        <f>+E7-E11</f>
+        <f t="shared" si="28"/>
         <v>4472</v>
       </c>
       <c r="F12" s="2">
-        <f>+F7-F11</f>
+        <f t="shared" si="28"/>
         <v>3666</v>
       </c>
       <c r="G12" s="2">
-        <f>+G7-G11</f>
+        <f t="shared" si="28"/>
         <v>2465</v>
       </c>
       <c r="H12" s="2">
-        <f>+H7-H11</f>
+        <f t="shared" si="28"/>
         <v>2090</v>
       </c>
       <c r="I12" s="2">
-        <f>+I7-I11</f>
+        <f t="shared" si="28"/>
         <v>1823</v>
       </c>
       <c r="J12" s="2">
-        <f>+J7-J11</f>
+        <f t="shared" si="28"/>
         <v>1411</v>
       </c>
       <c r="K12" s="2">
-        <f>+K7-K11</f>
+        <f t="shared" si="28"/>
         <v>2928</v>
       </c>
       <c r="L12" s="2">
-        <f>+L7-L11</f>
+        <f t="shared" si="28"/>
         <v>2340</v>
       </c>
       <c r="M12" s="2">
-        <f>+M7-M11</f>
+        <f t="shared" si="28"/>
         <v>2221</v>
       </c>
       <c r="N12" s="2">
-        <f>+N7-N11</f>
+        <f t="shared" si="28"/>
         <v>2581</v>
       </c>
       <c r="O12" s="2">
-        <f>+O7-O11</f>
+        <f t="shared" si="28"/>
         <v>2667.5766666666677</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" ref="P12:R12" si="24">+P7-P11</f>
+        <f t="shared" ref="P12:R12" si="29">+P7-P11</f>
         <v>2694.2524333333345</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>2721.1949576666671</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="24"/>
+        <f t="shared" si="29"/>
         <v>2748.406907243334</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" ref="S12" si="25">+S7-S11</f>
+        <f t="shared" ref="S12" si="30">+S7-S11</f>
         <v>2775.8909763157671</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" ref="T12" si="26">+T7-T11</f>
+        <f t="shared" ref="T12" si="31">+T7-T11</f>
         <v>2803.6498860789243</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" ref="U12" si="27">+U7-U11</f>
+        <f t="shared" ref="U12" si="32">+U7-U11</f>
         <v>2831.6863849397132</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" ref="V12" si="28">+V7-V11</f>
+        <f t="shared" ref="V12" si="33">+V7-V11</f>
         <v>2860.0032487891108</v>
       </c>
       <c r="Y12" s="2">
@@ -2127,31 +2127,31 @@
         <v>-156.83333333333334</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" ref="P13:R14" si="29">+O13*1.01</f>
+        <f t="shared" ref="P13:R14" si="34">+O13*1.01</f>
         <v>-158.40166666666667</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-159.98568333333333</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>-161.58554016666668</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" ref="S13:V13" si="30">+R13*1.01</f>
+        <f t="shared" ref="S13:V13" si="35">+R13*1.01</f>
         <v>-163.20139556833334</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>-164.83340952401667</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>-166.48174361925683</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="30"/>
+        <f t="shared" si="35"/>
         <v>-168.14656105544941</v>
       </c>
       <c r="Y13" s="2">
@@ -2220,31 +2220,31 @@
         <v>78.25</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>79.032499999999999</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>79.822824999999995</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="34"/>
         <v>80.621053249999989</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" ref="S14:V14" si="31">+R14*1.01</f>
+        <f t="shared" ref="S14:V14" si="36">+R14*1.01</f>
         <v>81.427263782499992</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>82.241536420324991</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>83.063951784528243</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>83.894591302373527</v>
       </c>
       <c r="Y14" s="2">
@@ -2313,31 +2313,31 @@
         <v>133.3788333333334</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" ref="P15:R15" si="32">+P12*0.05</f>
+        <f t="shared" ref="P15:R15" si="37">+P12*0.05</f>
         <v>134.71262166666673</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>136.05974788333336</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>137.4203453621667</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" ref="S15:V15" si="33">+S12*0.05</f>
+        <f t="shared" ref="S15:V15" si="38">+S12*0.05</f>
         <v>138.79454881578837</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>140.18249430394621</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>141.58431924698567</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>143.00016243945555</v>
       </c>
       <c r="Y15" s="2">
@@ -2366,83 +2366,83 @@
         <v>37</v>
       </c>
       <c r="C16" s="4">
-        <f>+C12+C13+C14+C15</f>
+        <f t="shared" ref="C16:N16" si="39">+C12+C13+C14+C15</f>
         <v>3399</v>
       </c>
       <c r="D16" s="4">
-        <f>+D12+D13+D14+D15</f>
+        <f t="shared" si="39"/>
         <v>2934</v>
       </c>
       <c r="E16" s="4">
-        <f>+E12+E13+E14+E15</f>
+        <f t="shared" si="39"/>
         <v>3730</v>
       </c>
       <c r="F16" s="4">
-        <f>+F12+F13+F14+F15</f>
+        <f t="shared" si="39"/>
         <v>2923</v>
       </c>
       <c r="G16" s="4">
-        <f>+G12+G13+G14+G15</f>
+        <f t="shared" si="39"/>
         <v>2273</v>
       </c>
       <c r="H16" s="4">
-        <f>+H12+H13+H14+H15</f>
+        <f t="shared" si="39"/>
         <v>1702</v>
       </c>
       <c r="I16" s="4">
-        <f>+I12+I13+I14+I15</f>
+        <f t="shared" si="39"/>
         <v>1735</v>
       </c>
       <c r="J16" s="4">
-        <f>+J12+J13+J14+J15</f>
+        <f t="shared" si="39"/>
         <v>1629</v>
       </c>
       <c r="K16" s="4">
-        <f>+K12+K13+K14+K15</f>
+        <f t="shared" si="39"/>
         <v>2811</v>
       </c>
       <c r="L16" s="4">
-        <f>+L12+L13+L14+L15</f>
+        <f t="shared" si="39"/>
         <v>2275</v>
       </c>
       <c r="M16" s="4">
-        <f>+M12+M13+M14+M15</f>
+        <f t="shared" si="39"/>
         <v>2108</v>
       </c>
       <c r="N16" s="4">
-        <f>+N12+N13+N14+N15</f>
+        <f t="shared" si="39"/>
         <v>2915</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" ref="O16:R16" si="34">+O12+O13+O14+O15</f>
+        <f t="shared" ref="O16:R16" si="40">+O12+O13+O14+O15</f>
         <v>2722.3721666666675</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>2749.5958883333342</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>2777.0918472166672</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="34"/>
+        <f t="shared" si="40"/>
         <v>2804.8627656888339</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" ref="S16" si="35">+S12+S13+S14+S15</f>
+        <f t="shared" ref="S16" si="41">+S12+S13+S14+S15</f>
         <v>2832.9113933457224</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" ref="T16" si="36">+T12+T13+T14+T15</f>
+        <f t="shared" ref="T16" si="42">+T12+T13+T14+T15</f>
         <v>2861.2405072791789</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" ref="U16" si="37">+U12+U13+U14+U15</f>
+        <f t="shared" ref="U16" si="43">+U12+U13+U14+U15</f>
         <v>2889.8529123519702</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" ref="V16" si="38">+V12+V13+V14+V15</f>
+        <f t="shared" ref="V16" si="44">+V12+V13+V14+V15</f>
         <v>2918.7514414754905</v>
       </c>
       <c r="Y16" s="4">
@@ -2462,7 +2462,7 @@
         <v>11053.922667905501</v>
       </c>
       <c r="AC16" s="4">
-        <f t="shared" ref="AC16" si="39">+AC12+AC13+AC14+AC15</f>
+        <f t="shared" ref="AC16" si="45">+AC12+AC13+AC14+AC15</f>
         <v>11502.756254452364</v>
       </c>
       <c r="AD16" s="8">
@@ -2470,291 +2470,291 @@
         <v>11272.701129363317</v>
       </c>
       <c r="AE16" s="8">
-        <f t="shared" ref="AE16:CP16" si="40">+AD16*(1+$AF21)</f>
+        <f t="shared" ref="AE16:CP16" si="46">+AD16*(1+$AF21)</f>
         <v>11047.247106776051</v>
       </c>
       <c r="AF16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>10826.302164640529</v>
       </c>
       <c r="AG16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>10609.776121347717</v>
       </c>
       <c r="AH16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>10397.580598920762</v>
       </c>
       <c r="AI16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>10189.628986942347</v>
       </c>
       <c r="AJ16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>9985.8364072035001</v>
       </c>
       <c r="AK16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>9786.1196790594295</v>
       </c>
       <c r="AL16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>9590.3972854782405</v>
       </c>
       <c r="AM16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>9398.5893397686759</v>
       </c>
       <c r="AN16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>9210.6175529733027</v>
       </c>
       <c r="AO16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>9026.4052019138362</v>
       </c>
       <c r="AP16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>8845.8770978755601</v>
       </c>
       <c r="AQ16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>8668.9595559180489</v>
       </c>
       <c r="AR16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>8495.5803647996872</v>
       </c>
       <c r="AS16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>8325.668757503694</v>
       </c>
       <c r="AT16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>8159.1553823536196</v>
       </c>
       <c r="AU16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>7995.9722747065471</v>
       </c>
       <c r="AV16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>7836.0528292124163</v>
       </c>
       <c r="AW16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>7679.3317726281675</v>
       </c>
       <c r="AX16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>7525.7451371756042</v>
       </c>
       <c r="AY16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>7375.2302344320924</v>
       </c>
       <c r="AZ16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>7227.7256297434506</v>
       </c>
       <c r="BA16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>7083.1711171485813</v>
       </c>
       <c r="BB16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>6941.5076948056094</v>
       </c>
       <c r="BC16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>6802.6775409094971</v>
       </c>
       <c r="BD16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>6666.623990091307</v>
       </c>
       <c r="BE16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>6533.2915102894804</v>
       </c>
       <c r="BF16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>6402.6256800836909</v>
       </c>
       <c r="BG16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>6274.5731664820169</v>
       </c>
       <c r="BH16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>6149.0817031523766</v>
       </c>
       <c r="BI16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>6026.1000690893288</v>
       </c>
       <c r="BJ16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>5905.5780677075418</v>
       </c>
       <c r="BK16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>5787.4665063533912</v>
       </c>
       <c r="BL16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>5671.7171762263233</v>
       </c>
       <c r="BM16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>5558.2828327017969</v>
       </c>
       <c r="BN16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>5447.1171760477609</v>
       </c>
       <c r="BO16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>5338.1748325268054</v>
       </c>
       <c r="BP16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>5231.4113358762688</v>
       </c>
       <c r="BQ16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>5126.7831091587432</v>
       </c>
       <c r="BR16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>5024.247446975568</v>
       </c>
       <c r="BS16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>4923.762498036057</v>
       </c>
       <c r="BT16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>4825.2872480753358</v>
       </c>
       <c r="BU16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>4728.7815031138289</v>
       </c>
       <c r="BV16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>4634.2058730515519</v>
       </c>
       <c r="BW16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>4541.521755590521</v>
       </c>
       <c r="BX16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>4450.6913204787106</v>
       </c>
       <c r="BY16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>4361.6774940691366</v>
       </c>
       <c r="BZ16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>4274.4439441877539</v>
       </c>
       <c r="CA16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>4188.9550653039987</v>
       </c>
       <c r="CB16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>4105.1759639979191</v>
       </c>
       <c r="CC16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>4023.0724447179605</v>
       </c>
       <c r="CD16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>3942.6109958236011</v>
       </c>
       <c r="CE16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>3863.7587759071289</v>
       </c>
       <c r="CF16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>3786.4836003889864</v>
       </c>
       <c r="CG16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>3710.7539283812066</v>
       </c>
       <c r="CH16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>3636.5388498135826</v>
       </c>
       <c r="CI16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>3563.8080728173109</v>
       </c>
       <c r="CJ16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>3492.5319113609644</v>
       </c>
       <c r="CK16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>3422.681273133745</v>
       </c>
       <c r="CL16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>3354.2276476710699</v>
       </c>
       <c r="CM16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>3287.1430947176486</v>
       </c>
       <c r="CN16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>3221.4002328232955</v>
       </c>
       <c r="CO16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>3156.9722281668296</v>
       </c>
       <c r="CP16" s="8">
-        <f t="shared" si="40"/>
+        <f t="shared" si="46"/>
         <v>3093.8327836034928</v>
       </c>
       <c r="CQ16" s="8">
-        <f t="shared" ref="CQ16:CX16" si="41">+CP16*(1+$AF21)</f>
+        <f t="shared" ref="CQ16:CX16" si="47">+CP16*(1+$AF21)</f>
         <v>3031.956127931423</v>
       </c>
       <c r="CR16" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>2971.3170053727945</v>
       </c>
       <c r="CS16" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>2911.8906652653386</v>
       </c>
       <c r="CT16" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>2853.652851960032</v>
       </c>
       <c r="CU16" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>2796.5797949208313</v>
       </c>
       <c r="CV16" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>2740.6481990224147</v>
       </c>
       <c r="CW16" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>2685.8352350419664</v>
       </c>
       <c r="CX16" s="8">
-        <f t="shared" si="41"/>
+        <f t="shared" si="47"/>
         <v>2632.1185303411271</v>
       </c>
     </row>
@@ -2763,83 +2763,83 @@
         <v>38</v>
       </c>
       <c r="C17" s="3">
-        <f>+C16/C18</f>
+        <f t="shared" ref="C17:M17" si="48">+C16/C18</f>
         <v>2.9763572679509633</v>
       </c>
       <c r="D17" s="3">
-        <f>+D16/D18</f>
+        <f t="shared" si="48"/>
         <v>2.5736842105263156</v>
       </c>
       <c r="E17" s="3">
-        <f>+E16/E18</f>
+        <f t="shared" si="48"/>
         <v>3.2892416225749561</v>
       </c>
       <c r="F17" s="3">
-        <f>+F16/F18</f>
+        <f t="shared" si="48"/>
         <v>2.5798764342453664</v>
       </c>
       <c r="G17" s="3">
-        <f>+G16/G18</f>
+        <f t="shared" si="48"/>
         <v>2.0168589174800355</v>
       </c>
       <c r="H17" s="3">
-        <f>+H16/H18</f>
+        <f t="shared" si="48"/>
         <v>1.5155832591273375</v>
       </c>
       <c r="I17" s="3">
-        <f>+I16/I18</f>
+        <f t="shared" si="48"/>
         <v>1.5299823633156966</v>
       </c>
       <c r="J17" s="3">
-        <f>+J16/J18</f>
+        <f t="shared" si="48"/>
         <v>1.448</v>
       </c>
       <c r="K17" s="3">
-        <f>+K16/K18</f>
+        <f t="shared" si="48"/>
         <v>2.4942324755989351</v>
       </c>
       <c r="L17" s="3">
-        <f>+L16/L18</f>
+        <f t="shared" si="48"/>
         <v>2.0132743362831858</v>
       </c>
       <c r="M17" s="3">
-        <f>+M16/M18</f>
+        <f t="shared" si="48"/>
         <v>1.8589065255731922</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" ref="N17:R17" si="42">+N16/N18</f>
+        <f t="shared" ref="N17:R17" si="49">+N16/N18</f>
         <v>2.5705467372134039</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>2.4006809229864792</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>2.424687732216344</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>2.4489346095385072</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="49"/>
         <v>2.4734239556338924</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" ref="S17" si="43">+S16/S18</f>
+        <f t="shared" ref="S17" si="50">+S16/S18</f>
         <v>2.4981581951902316</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" ref="T17" si="44">+T16/T18</f>
+        <f t="shared" ref="T17" si="51">+T16/T18</f>
         <v>2.5231397771421329</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" ref="U17" si="45">+U16/U18</f>
+        <f t="shared" ref="U17" si="52">+U16/U18</f>
         <v>2.5483711749135538</v>
       </c>
       <c r="V17" s="3">
-        <f t="shared" ref="V17" si="46">+V16/V18</f>
+        <f t="shared" ref="V17" si="53">+V16/V18</f>
         <v>2.5738548866626902</v>
       </c>
       <c r="Y17" s="3">
@@ -2855,11 +2855,11 @@
         <v>9.4293634952317582</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" ref="AB17" si="47">+AB16/AB18</f>
+        <f t="shared" ref="AB17" si="54">+AB16/AB18</f>
         <v>9.7908969600580171</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" ref="AC17" si="48">+AC16/AC18</f>
+        <f t="shared" ref="AC17" si="55">+AC16/AC18</f>
         <v>10.188446638133184</v>
       </c>
     </row>
@@ -2940,11 +2940,11 @@
         <v>1127.25</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" ref="AB18" si="49">+AVERAGE(I18:L18)</f>
+        <f t="shared" ref="AB18" si="56">+AVERAGE(I18:L18)</f>
         <v>1129</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" ref="AC18" si="50">+AVERAGE(J18:M18)</f>
+        <f t="shared" ref="AC18" si="57">+AVERAGE(J18:M18)</f>
         <v>1129</v>
       </c>
     </row>
@@ -2955,31 +2955,31 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9">
-        <f t="shared" ref="G20:M20" si="51">+G5/C5-1</f>
+        <f t="shared" ref="G20:M20" si="58">+G5/C5-1</f>
         <v>-0.11602055114432508</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>-0.16920458616983158</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>-0.22723116313094371</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>-0.24262899262899262</v>
       </c>
       <c r="K20" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>4.9878474056852973E-2</v>
       </c>
       <c r="L20" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>1.2291105121293722E-2</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" si="51"/>
+        <f t="shared" si="58"/>
         <v>0.11146609868654589</v>
       </c>
       <c r="N20" s="9">
@@ -2987,19 +2987,19 @@
         <v>0.1868844861545591</v>
       </c>
       <c r="O20" s="9">
-        <f t="shared" ref="O20:R20" si="52">+O5/K5-1</f>
+        <f t="shared" ref="O20:R20" si="59">+O5/K5-1</f>
         <v>-1.9963093440696911E-3</v>
       </c>
       <c r="P20" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>6.66011644832607E-2</v>
       </c>
       <c r="Q20" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>7.6808422939068199E-2</v>
       </c>
       <c r="R20" s="9">
-        <f t="shared" si="52"/>
+        <f t="shared" si="59"/>
         <v>-2.7717559709747874E-3</v>
       </c>
       <c r="Z20" s="9">
@@ -3028,63 +3028,63 @@
         <v>0.59803829985987855</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" ref="D21:N21" si="53">+D7/D5</f>
+        <f t="shared" ref="D21:N21" si="60">+D7/D5</f>
         <v>0.58366176997491936</v>
       </c>
       <c r="E21" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.55961960497439645</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.57283257283257283</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.57265137905526786</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.55223719676549865</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.55129570465033728</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.55045765264743363</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.56597886260694519</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.56267973160080942</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.555626530394975</v>
       </c>
       <c r="N21" s="9">
-        <f t="shared" si="53"/>
+        <f t="shared" si="60"/>
         <v>0.56393986723935963</v>
       </c>
       <c r="O21" s="9">
-        <f t="shared" ref="O21:R21" si="54">+O7/O5</f>
+        <f t="shared" ref="O21:R21" si="61">+O7/O5</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="P21" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="R21" s="9">
-        <f t="shared" si="54"/>
+        <f t="shared" si="61"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AE21" s="1" t="s">
@@ -3103,63 +3103,63 @@
         <v>0.31751517982251287</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" ref="D22:N22" si="55">+D16/D5</f>
+        <f t="shared" ref="D22:N22" si="62">+D16/D5</f>
         <v>0.26280902902185599</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.34107534747622531</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.2564935064935065</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.24019866849836205</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.18350404312668464</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.20530114779316058</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.18873826903023982</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.28293910417715146</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.24230482479497284</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.22442244224422442</v>
       </c>
       <c r="N22" s="9">
-        <f t="shared" si="55"/>
+        <f t="shared" si="62"/>
         <v>0.28455681374463099</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" ref="O22:R22" si="56">+O16/O5</f>
+        <f t="shared" ref="O22:R22" si="63">+O16/O5</f>
         <v>0.27456645543023317</v>
       </c>
       <c r="P22" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.27456645543023317</v>
       </c>
       <c r="Q22" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.27456645543023317</v>
       </c>
       <c r="R22" s="9">
-        <f t="shared" si="56"/>
+        <f t="shared" si="63"/>
         <v>0.27456645543023317</v>
       </c>
       <c r="AE22" s="1" t="s">
@@ -3178,63 +3178,63 @@
         <v>0.18028958430639888</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" ref="D23:N23" si="57">+D8/D5</f>
+        <f t="shared" ref="D23:N23" si="64">+D8/D5</f>
         <v>0.18219276245073451</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.18763716166788588</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.19120744120744121</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.23787382436859347</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.23827493261455526</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.26292746420541946</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.24736415247364152</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.21097131353799697</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.2381510277984876</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.24049824337272438</v>
       </c>
       <c r="N23" s="9">
-        <f t="shared" si="57"/>
+        <f t="shared" si="64"/>
         <v>0.2247169074580242</v>
       </c>
       <c r="O23" s="9">
-        <f t="shared" ref="O23:R23" si="58">+O8/O5</f>
+        <f t="shared" ref="O23:R23" si="65">+O8/O5</f>
         <v>0.21773041300364759</v>
       </c>
       <c r="P23" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>0.21773041300364759</v>
       </c>
       <c r="Q23" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>0.21773041300364759</v>
       </c>
       <c r="R23" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="65"/>
         <v>0.21773041300364765</v>
       </c>
       <c r="AE23" s="1" t="s">
@@ -3254,47 +3254,47 @@
         <v>0.12060041407867494</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" ref="D24:N24" si="59">+D15/D12*-1</f>
+        <f t="shared" ref="D24:N24" si="66">+D15/D12*-1</f>
         <v>0.12674961119751166</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0.11381932021466905</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>0.14920894708128751</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>3.9756592292089249E-2</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>9.2344497607655507E-2</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>1.2068019747668678E-2</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>-0.1481218993621545</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>5.1571038251366122E-2</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>9.5299145299145294E-2</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>7.6992345790184602E-2</v>
       </c>
       <c r="N24" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="66"/>
         <v>-0.12320805889190237</v>
       </c>
       <c r="O24" s="9">
@@ -3302,15 +3302,15 @@
         <v>5.0589997775516322E-2</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" ref="P24:R24" si="60">+AVERAGE(D24:O24)</f>
+        <f t="shared" ref="P24:R24" si="67">+AVERAGE(D24:O24)</f>
         <v>4.475579641691977E-2</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>3.7922978518537105E-2</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="67"/>
         <v>3.1598283377192782E-2</v>
       </c>
       <c r="AE24" s="1" t="s">

--- a/QCOM.xlsx
+++ b/QCOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kipp\Documents\GitHub\Financial-Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59A504F2-7C3D-4DFE-96A3-2E4DE387762A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F054150-D0C1-436D-B4E8-CB85E4C1A3D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="675" windowWidth="23355" windowHeight="14445" activeTab="1" xr2:uid="{EDE7FC58-ED31-490D-AEAC-D1F0975229E4}"/>
+    <workbookView xWindow="1965" yWindow="1320" windowWidth="19515" windowHeight="14340" xr2:uid="{EDE7FC58-ED31-490D-AEAC-D1F0975229E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="76">
   <si>
     <t>Price</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>P/E</t>
+  </si>
+  <si>
+    <t>NI</t>
+  </si>
+  <si>
+    <t>CFFO</t>
+  </si>
+  <si>
+    <t>CAPEX</t>
+  </si>
+  <si>
+    <t>FCF</t>
   </si>
 </sst>
 </file>
@@ -792,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94465037-65E4-4154-9611-9CF43E9C488B}">
   <dimension ref="B2:K24"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -814,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="3">
-        <v>164.56</v>
+        <v>174.25</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -837,7 +849,7 @@
       </c>
       <c r="J5" s="2">
         <f>+J3*J4</f>
-        <v>182826.16</v>
+        <v>193591.75</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
@@ -870,7 +882,7 @@
       </c>
       <c r="J8" s="4">
         <f>+J5-J6+J7</f>
-        <v>184160.16</v>
+        <v>194925.75</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -899,7 +911,7 @@
       </c>
       <c r="J11" s="3">
         <f>+(J3/J10)/4</f>
-        <v>16.007782101167315</v>
+        <v>16.950389105058367</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -954,13 +966,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C94B7CF-FE6E-4A50-8F0A-17561D9CF355}">
-  <dimension ref="A1:CX26"/>
+  <dimension ref="A1:CX33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="V6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AB3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AA16" sqref="AA16"/>
+      <selection pane="bottomRight" activeCell="AG23" sqref="AG23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1104,6 +1116,38 @@
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
+      <c r="AF2" s="1">
+        <f t="shared" ref="AF2" si="1">+AE2+1</f>
+        <v>2029</v>
+      </c>
+      <c r="AG2" s="1">
+        <f t="shared" ref="AG2" si="2">+AF2+1</f>
+        <v>2030</v>
+      </c>
+      <c r="AH2" s="1">
+        <f t="shared" ref="AH2" si="3">+AG2+1</f>
+        <v>2031</v>
+      </c>
+      <c r="AI2" s="1">
+        <f t="shared" ref="AI2" si="4">+AH2+1</f>
+        <v>2032</v>
+      </c>
+      <c r="AJ2" s="1">
+        <f t="shared" ref="AJ2" si="5">+AI2+1</f>
+        <v>2033</v>
+      </c>
+      <c r="AK2" s="1">
+        <f t="shared" ref="AK2" si="6">+AJ2+1</f>
+        <v>2034</v>
+      </c>
+      <c r="AL2" s="1">
+        <f t="shared" ref="AL2" si="7">+AK2+1</f>
+        <v>2035</v>
+      </c>
+      <c r="AM2" s="1">
+        <f t="shared" ref="AM2" si="8">+AL2+1</f>
+        <v>2036</v>
+      </c>
     </row>
     <row r="3" spans="1:102" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -1154,27 +1198,27 @@
         <v>8415.9091666666682</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:R3" si="1">+P3*1.01</f>
+        <f t="shared" ref="Q3:R3" si="9">+P3*1.01</f>
         <v>8500.0682583333346</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="9"/>
         <v>8585.068940916668</v>
       </c>
       <c r="S3" s="2">
-        <f t="shared" ref="S3:V3" si="2">+R3*1.01</f>
+        <f t="shared" ref="S3:V3" si="10">+R3*1.01</f>
         <v>8670.9196303258341</v>
       </c>
       <c r="T3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>8757.6288266290921</v>
       </c>
       <c r="U3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>8845.2051148953833</v>
       </c>
       <c r="V3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>8933.6571660443369</v>
       </c>
       <c r="Y3" s="2">
@@ -1255,19 +1299,19 @@
         <v>1630.5371909166665</v>
       </c>
       <c r="S4" s="2">
-        <f t="shared" ref="S4:V4" si="3">+R4*1.01</f>
+        <f t="shared" ref="S4:V4" si="11">+R4*1.01</f>
         <v>1646.8425628258333</v>
       </c>
       <c r="T4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1663.3109884540916</v>
       </c>
       <c r="U4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1679.9440983386326</v>
       </c>
       <c r="V4" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>1696.7435393220189</v>
       </c>
       <c r="Y4" s="2">
@@ -1296,83 +1340,82 @@
         <v>9</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:N5" si="4">+C4+C3</f>
+        <f t="shared" ref="C5:N5" si="12">+C4+C3</f>
         <v>10705</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>11164</v>
       </c>
       <c r="E5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>10936</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>11396</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>9463</v>
       </c>
       <c r="H5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>9275</v>
       </c>
       <c r="I5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>8451</v>
       </c>
       <c r="J5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>8631</v>
       </c>
       <c r="K5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>9935</v>
       </c>
       <c r="L5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>9389</v>
       </c>
       <c r="M5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>9393</v>
       </c>
       <c r="N5" s="4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>10244</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" ref="O5:R5" si="5">+O4+O3</f>
-        <v>9915.1666666666679</v>
+        <v>10700</v>
       </c>
       <c r="P5" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="O5:R5" si="13">+P4+P3</f>
         <v>10014.318333333335</v>
       </c>
       <c r="Q5" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>10114.461516666668</v>
       </c>
       <c r="R5" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>10215.606131833334</v>
       </c>
       <c r="S5" s="4">
-        <f t="shared" ref="S5" si="6">+S4+S3</f>
+        <f t="shared" ref="S5" si="14">+S4+S3</f>
         <v>10317.762193151668</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" ref="T5" si="7">+T4+T3</f>
+        <f t="shared" ref="T5" si="15">+T4+T3</f>
         <v>10420.939815083184</v>
       </c>
       <c r="U5" s="4">
-        <f t="shared" ref="U5" si="8">+U4+U3</f>
+        <f t="shared" ref="U5" si="16">+U4+U3</f>
         <v>10525.149213234015</v>
       </c>
       <c r="V5" s="4">
-        <f t="shared" ref="V5" si="9">+V4+V3</f>
+        <f t="shared" ref="V5" si="17">+V4+V3</f>
         <v>10630.400705366355</v>
       </c>
       <c r="Y5" s="4">
@@ -1438,34 +1481,34 @@
       </c>
       <c r="O6" s="2">
         <f>+O5-O7</f>
-        <v>4362.6733333333332</v>
+        <v>4707.9999999999991</v>
       </c>
       <c r="P6" s="2">
-        <f t="shared" ref="P6:R6" si="10">+P5-P7</f>
+        <f t="shared" ref="P6:R6" si="18">+P5-P7</f>
         <v>4406.3000666666667</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4450.3630673333337</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>4494.8666980066664</v>
       </c>
       <c r="S6" s="2">
-        <f t="shared" ref="S6" si="11">+S5-S7</f>
+        <f t="shared" ref="S6" si="19">+S5-S7</f>
         <v>4539.8153649867336</v>
       </c>
       <c r="T6" s="2">
-        <f t="shared" ref="T6" si="12">+T5-T7</f>
+        <f t="shared" ref="T6" si="20">+T5-T7</f>
         <v>4585.2135186366004</v>
       </c>
       <c r="U6" s="2">
-        <f t="shared" ref="U6" si="13">+U5-U7</f>
+        <f t="shared" ref="U6" si="21">+U5-U7</f>
         <v>4631.0656538229659</v>
       </c>
       <c r="V6" s="2">
-        <f t="shared" ref="V6" si="14">+V5-V7</f>
+        <f t="shared" ref="V6" si="22">+V5-V7</f>
         <v>4677.3763103611955</v>
       </c>
       <c r="Y6" s="2">
@@ -1482,7 +1525,7 @@
       </c>
       <c r="AB6" s="2">
         <f>+SUM(O6:R6)</f>
-        <v>17714.203165339997</v>
+        <v>18059.529832006665</v>
       </c>
       <c r="AC6" s="2">
         <f>+SUM(S6:V6)</f>
@@ -1494,83 +1537,83 @@
         <v>39</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" ref="C7:N7" si="15">+C5-C6</f>
+        <f t="shared" ref="C7:N7" si="23">+C5-C6</f>
         <v>6402</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>6516</v>
       </c>
       <c r="E7" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>6120</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>6528</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>5419</v>
       </c>
       <c r="H7" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>5122</v>
       </c>
       <c r="I7" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>4659</v>
       </c>
       <c r="J7" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>4751</v>
       </c>
       <c r="K7" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>5623</v>
       </c>
       <c r="L7" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>5283</v>
       </c>
       <c r="M7" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>5219</v>
       </c>
       <c r="N7" s="4">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>5777</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" ref="O7:R7" si="16">+O5*0.56</f>
-        <v>5552.4933333333347</v>
+        <f t="shared" ref="O7:R7" si="24">+O5*0.56</f>
+        <v>5992.0000000000009</v>
       </c>
       <c r="P7" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>5608.0182666666678</v>
       </c>
       <c r="Q7" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>5664.0984493333344</v>
       </c>
       <c r="R7" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>5720.7394338266677</v>
       </c>
       <c r="S7" s="4">
-        <f t="shared" ref="S7:V7" si="17">+S5*0.56</f>
+        <f t="shared" ref="S7:V7" si="25">+S5*0.56</f>
         <v>5777.9468281649342</v>
       </c>
       <c r="T7" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>5835.7262964465835</v>
       </c>
       <c r="U7" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>5894.0835594110495</v>
       </c>
       <c r="V7" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>5953.0243950051599</v>
       </c>
       <c r="Y7" s="4">
@@ -1587,7 +1630,7 @@
       </c>
       <c r="AB7" s="4">
         <f>+AB5-AB6</f>
-        <v>22545.349483160004</v>
+        <v>22200.022816493336</v>
       </c>
       <c r="AC7" s="4">
         <f>+AC5-AC6</f>
@@ -1639,31 +1682,31 @@
         <v>2158.8333333333335</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" ref="P8:R10" si="18">+O8*1.01</f>
+        <f t="shared" ref="P8:R10" si="26">+O8*1.01</f>
         <v>2180.4216666666666</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2202.2258833333335</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>2224.2481421666671</v>
       </c>
       <c r="S8" s="2">
-        <f t="shared" ref="S8:V8" si="19">+R8*1.01</f>
+        <f t="shared" ref="S8:V8" si="27">+R8*1.01</f>
         <v>2246.4906235883336</v>
       </c>
       <c r="T8" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2268.9555298242171</v>
       </c>
       <c r="U8" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2291.6450851224595</v>
       </c>
       <c r="V8" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>2314.5615359736839</v>
       </c>
       <c r="Y8" s="2">
@@ -1732,31 +1775,31 @@
         <v>651.08333333333337</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>657.59416666666675</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>664.17010833333347</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>670.81180941666685</v>
       </c>
       <c r="S9" s="2">
-        <f t="shared" ref="S9:V9" si="20">+R9*1.01</f>
+        <f t="shared" ref="S9:V9" si="28">+R9*1.01</f>
         <v>677.51992751083355</v>
       </c>
       <c r="T9" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>684.29512678594187</v>
       </c>
       <c r="U9" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>691.13807805380134</v>
       </c>
       <c r="V9" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>698.04945883433936</v>
       </c>
       <c r="Y9" s="2">
@@ -1824,31 +1867,31 @@
         <v>75</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>75.75</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>76.507500000000007</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>77.272575000000003</v>
       </c>
       <c r="S10" s="2">
-        <f t="shared" ref="S10:V10" si="21">+R10*1.01</f>
+        <f t="shared" ref="S10:V10" si="29">+R10*1.01</f>
         <v>78.04530075000001</v>
       </c>
       <c r="T10" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>78.82575375750001</v>
       </c>
       <c r="U10" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>79.614011295075017</v>
       </c>
       <c r="V10" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>80.410151408025769</v>
       </c>
       <c r="Y10" s="2">
@@ -1877,83 +1920,83 @@
         <v>34</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" ref="C11:N11" si="22">+SUM(C8:C10)</f>
+        <f t="shared" ref="C11:N11" si="30">+SUM(C8:C10)</f>
         <v>2538</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>2658</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>1648</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>2862</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>2954</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>3032</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>2836</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>3340</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>2695</v>
       </c>
       <c r="L11" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>2943</v>
       </c>
       <c r="M11" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>2998</v>
       </c>
       <c r="N11" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>3196</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" ref="O11:R11" si="23">+SUM(O8:O10)</f>
+        <f t="shared" ref="O11:R11" si="31">+SUM(O8:O10)</f>
         <v>2884.916666666667</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2913.7658333333334</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2942.9034916666674</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>2972.3325265833337</v>
       </c>
       <c r="S11" s="2">
-        <f t="shared" ref="S11" si="24">+SUM(S8:S10)</f>
+        <f t="shared" ref="S11" si="32">+SUM(S8:S10)</f>
         <v>3002.0558518491671</v>
       </c>
       <c r="T11" s="2">
-        <f t="shared" ref="T11" si="25">+SUM(T8:T10)</f>
+        <f t="shared" ref="T11" si="33">+SUM(T8:T10)</f>
         <v>3032.0764103676593</v>
       </c>
       <c r="U11" s="2">
-        <f t="shared" ref="U11" si="26">+SUM(U8:U10)</f>
+        <f t="shared" ref="U11" si="34">+SUM(U8:U10)</f>
         <v>3062.3971744713363</v>
       </c>
       <c r="V11" s="2">
-        <f t="shared" ref="V11" si="27">+SUM(V8:V10)</f>
+        <f t="shared" ref="V11" si="35">+SUM(V8:V10)</f>
         <v>3093.0211462160491</v>
       </c>
       <c r="Y11" s="2">
@@ -1982,83 +2025,83 @@
         <v>33</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" ref="C12:O12" si="28">+C7-C11</f>
+        <f t="shared" ref="C12:O12" si="36">+C7-C11</f>
         <v>3864</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>3858</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>4472</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>3666</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2465</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2090</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>1823</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>1411</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2928</v>
       </c>
       <c r="L12" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2340</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2221</v>
       </c>
       <c r="N12" s="2">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2581</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" si="28"/>
-        <v>2667.5766666666677</v>
+        <f t="shared" si="36"/>
+        <v>3107.0833333333339</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" ref="P12:R12" si="29">+P7-P11</f>
+        <f t="shared" ref="P12:R12" si="37">+P7-P11</f>
         <v>2694.2524333333345</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>2721.1949576666671</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>2748.406907243334</v>
       </c>
       <c r="S12" s="2">
-        <f t="shared" ref="S12" si="30">+S7-S11</f>
+        <f t="shared" ref="S12" si="38">+S7-S11</f>
         <v>2775.8909763157671</v>
       </c>
       <c r="T12" s="2">
-        <f t="shared" ref="T12" si="31">+T7-T11</f>
+        <f t="shared" ref="T12" si="39">+T7-T11</f>
         <v>2803.6498860789243</v>
       </c>
       <c r="U12" s="2">
-        <f t="shared" ref="U12" si="32">+U7-U11</f>
+        <f t="shared" ref="U12" si="40">+U7-U11</f>
         <v>2831.6863849397132</v>
       </c>
       <c r="V12" s="2">
-        <f t="shared" ref="V12" si="33">+V7-V11</f>
+        <f t="shared" ref="V12" si="41">+V7-V11</f>
         <v>2860.0032487891108</v>
       </c>
       <c r="Y12" s="2">
@@ -2075,7 +2118,7 @@
       </c>
       <c r="AB12" s="2">
         <f>+AB7-AB11</f>
-        <v>10831.430964910001</v>
+        <v>10486.104298243334</v>
       </c>
       <c r="AC12" s="2">
         <f>+AC7-AC11</f>
@@ -2127,31 +2170,31 @@
         <v>-156.83333333333334</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" ref="P13:R14" si="34">+O13*1.01</f>
+        <f t="shared" ref="P13:R14" si="42">+O13*1.01</f>
         <v>-158.40166666666667</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>-159.98568333333333</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>-161.58554016666668</v>
       </c>
       <c r="S13" s="2">
-        <f t="shared" ref="S13:V13" si="35">+R13*1.01</f>
+        <f t="shared" ref="S13:V13" si="43">+R13*1.01</f>
         <v>-163.20139556833334</v>
       </c>
       <c r="T13" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>-164.83340952401667</v>
       </c>
       <c r="U13" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>-166.48174361925683</v>
       </c>
       <c r="V13" s="2">
-        <f t="shared" si="35"/>
+        <f t="shared" si="43"/>
         <v>-168.14656105544941</v>
       </c>
       <c r="Y13" s="2">
@@ -2220,31 +2263,31 @@
         <v>78.25</v>
       </c>
       <c r="P14" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>79.032499999999999</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>79.822824999999995</v>
       </c>
       <c r="R14" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="42"/>
         <v>80.621053249999989</v>
       </c>
       <c r="S14" s="2">
-        <f t="shared" ref="S14:V14" si="36">+R14*1.01</f>
+        <f t="shared" ref="S14:V14" si="44">+R14*1.01</f>
         <v>81.427263782499992</v>
       </c>
       <c r="T14" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>82.241536420324991</v>
       </c>
       <c r="U14" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>83.063951784528243</v>
       </c>
       <c r="V14" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="44"/>
         <v>83.894591302373527</v>
       </c>
       <c r="Y14" s="2">
@@ -2310,34 +2353,34 @@
       </c>
       <c r="O15" s="2">
         <f>+O12*0.05</f>
-        <v>133.3788333333334</v>
+        <v>155.35416666666671</v>
       </c>
       <c r="P15" s="2">
-        <f t="shared" ref="P15:R15" si="37">+P12*0.05</f>
+        <f t="shared" ref="P15:R15" si="45">+P12*0.05</f>
         <v>134.71262166666673</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>136.05974788333336</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" si="37"/>
+        <f t="shared" si="45"/>
         <v>137.4203453621667</v>
       </c>
       <c r="S15" s="2">
-        <f t="shared" ref="S15:V15" si="38">+S12*0.05</f>
+        <f t="shared" ref="S15:V15" si="46">+S12*0.05</f>
         <v>138.79454881578837</v>
       </c>
       <c r="T15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>140.18249430394621</v>
       </c>
       <c r="U15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>141.58431924698567</v>
       </c>
       <c r="V15" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="46"/>
         <v>143.00016243945555</v>
       </c>
       <c r="Y15" s="2">
@@ -2354,7 +2397,7 @@
       </c>
       <c r="AB15" s="2">
         <f>+SUM(O15:R15)</f>
-        <v>541.57154824550014</v>
+        <v>563.54688157883345</v>
       </c>
       <c r="AC15" s="2">
         <f>+SUM(S15:V15)</f>
@@ -2366,83 +2409,83 @@
         <v>37</v>
       </c>
       <c r="C16" s="4">
-        <f t="shared" ref="C16:N16" si="39">+C12+C13+C14+C15</f>
+        <f t="shared" ref="C16:N16" si="47">+C12+C13+C14+C15</f>
         <v>3399</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>2934</v>
       </c>
       <c r="E16" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>3730</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>2923</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>2273</v>
       </c>
       <c r="H16" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>1702</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>1735</v>
       </c>
       <c r="J16" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>1629</v>
       </c>
       <c r="K16" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>2811</v>
       </c>
       <c r="L16" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>2275</v>
       </c>
       <c r="M16" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>2108</v>
       </c>
       <c r="N16" s="4">
-        <f t="shared" si="39"/>
+        <f t="shared" si="47"/>
         <v>2915</v>
       </c>
       <c r="O16" s="4">
-        <f t="shared" ref="O16:R16" si="40">+O12+O13+O14+O15</f>
-        <v>2722.3721666666675</v>
+        <f t="shared" ref="O16:R16" si="48">+O12+O13+O14+O15</f>
+        <v>3183.854166666667</v>
       </c>
       <c r="P16" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2749.5958883333342</v>
       </c>
       <c r="Q16" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2777.0918472166672</v>
       </c>
       <c r="R16" s="4">
-        <f t="shared" si="40"/>
+        <f t="shared" si="48"/>
         <v>2804.8627656888339</v>
       </c>
       <c r="S16" s="4">
-        <f t="shared" ref="S16" si="41">+S12+S13+S14+S15</f>
+        <f t="shared" ref="S16" si="49">+S12+S13+S14+S15</f>
         <v>2832.9113933457224</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" ref="T16" si="42">+T12+T13+T14+T15</f>
+        <f t="shared" ref="T16" si="50">+T12+T13+T14+T15</f>
         <v>2861.2405072791789</v>
       </c>
       <c r="U16" s="4">
-        <f t="shared" ref="U16" si="43">+U12+U13+U14+U15</f>
+        <f t="shared" ref="U16" si="51">+U12+U13+U14+U15</f>
         <v>2889.8529123519702</v>
       </c>
       <c r="V16" s="4">
-        <f t="shared" ref="V16" si="44">+V12+V13+V14+V15</f>
+        <f t="shared" ref="V16" si="52">+V12+V13+V14+V15</f>
         <v>2918.7514414754905</v>
       </c>
       <c r="Y16" s="4">
@@ -2459,303 +2502,303 @@
       </c>
       <c r="AB16" s="4">
         <f>+AB12+AB13+AB14+AB15</f>
-        <v>11053.922667905501</v>
+        <v>10730.571334572167</v>
       </c>
       <c r="AC16" s="4">
-        <f t="shared" ref="AC16" si="45">+AC12+AC13+AC14+AC15</f>
+        <f t="shared" ref="AC16" si="53">+AC12+AC13+AC14+AC15</f>
         <v>11502.756254452364</v>
       </c>
       <c r="AD16" s="8">
-        <f>+AC16*(1+$AF21)</f>
-        <v>11272.701129363317</v>
+        <f>+AC16*1.05</f>
+        <v>12077.894067174982</v>
       </c>
       <c r="AE16" s="8">
-        <f t="shared" ref="AE16:CP16" si="46">+AD16*(1+$AF21)</f>
-        <v>11047.247106776051</v>
+        <f t="shared" ref="AE16:AK16" si="54">+AD16*1.05</f>
+        <v>12681.788770533733</v>
       </c>
       <c r="AF16" s="8">
-        <f t="shared" si="46"/>
-        <v>10826.302164640529</v>
+        <f t="shared" si="54"/>
+        <v>13315.87820906042</v>
       </c>
       <c r="AG16" s="8">
-        <f t="shared" si="46"/>
-        <v>10609.776121347717</v>
+        <f t="shared" si="54"/>
+        <v>13981.672119513441</v>
       </c>
       <c r="AH16" s="8">
-        <f t="shared" si="46"/>
-        <v>10397.580598920762</v>
+        <f t="shared" si="54"/>
+        <v>14680.755725489114</v>
       </c>
       <c r="AI16" s="8">
-        <f t="shared" si="46"/>
-        <v>10189.628986942347</v>
+        <f t="shared" si="54"/>
+        <v>15414.793511763572</v>
       </c>
       <c r="AJ16" s="8">
-        <f t="shared" si="46"/>
-        <v>9985.8364072035001</v>
+        <f t="shared" si="54"/>
+        <v>16185.533187351752</v>
       </c>
       <c r="AK16" s="8">
-        <f t="shared" si="46"/>
-        <v>9786.1196790594295</v>
+        <f t="shared" si="54"/>
+        <v>16994.809846719341</v>
       </c>
       <c r="AL16" s="8">
-        <f t="shared" si="46"/>
-        <v>9590.3972854782405</v>
+        <f t="shared" ref="AE16:CP16" si="55">+AK16*(1+$AF21)</f>
+        <v>16824.861748252148</v>
       </c>
       <c r="AM16" s="8">
-        <f t="shared" si="46"/>
-        <v>9398.5893397686759</v>
+        <f t="shared" si="55"/>
+        <v>16656.613130769627</v>
       </c>
       <c r="AN16" s="8">
-        <f t="shared" si="46"/>
-        <v>9210.6175529733027</v>
+        <f t="shared" si="55"/>
+        <v>16490.046999461931</v>
       </c>
       <c r="AO16" s="8">
-        <f t="shared" si="46"/>
-        <v>9026.4052019138362</v>
+        <f t="shared" si="55"/>
+        <v>16325.146529467311</v>
       </c>
       <c r="AP16" s="8">
-        <f t="shared" si="46"/>
-        <v>8845.8770978755601</v>
+        <f t="shared" si="55"/>
+        <v>16161.895064172637</v>
       </c>
       <c r="AQ16" s="8">
-        <f t="shared" si="46"/>
-        <v>8668.9595559180489</v>
+        <f t="shared" si="55"/>
+        <v>16000.27611353091</v>
       </c>
       <c r="AR16" s="8">
-        <f t="shared" si="46"/>
-        <v>8495.5803647996872</v>
+        <f t="shared" si="55"/>
+        <v>15840.273352395601</v>
       </c>
       <c r="AS16" s="8">
-        <f t="shared" si="46"/>
-        <v>8325.668757503694</v>
+        <f t="shared" si="55"/>
+        <v>15681.870618871646</v>
       </c>
       <c r="AT16" s="8">
-        <f t="shared" si="46"/>
-        <v>8159.1553823536196</v>
+        <f t="shared" si="55"/>
+        <v>15525.051912682929</v>
       </c>
       <c r="AU16" s="8">
-        <f t="shared" si="46"/>
-        <v>7995.9722747065471</v>
+        <f t="shared" si="55"/>
+        <v>15369.801393556099</v>
       </c>
       <c r="AV16" s="8">
-        <f t="shared" si="46"/>
-        <v>7836.0528292124163</v>
+        <f t="shared" si="55"/>
+        <v>15216.103379620537</v>
       </c>
       <c r="AW16" s="8">
-        <f t="shared" si="46"/>
-        <v>7679.3317726281675</v>
+        <f t="shared" si="55"/>
+        <v>15063.942345824333</v>
       </c>
       <c r="AX16" s="8">
-        <f t="shared" si="46"/>
-        <v>7525.7451371756042</v>
+        <f t="shared" si="55"/>
+        <v>14913.302922366089</v>
       </c>
       <c r="AY16" s="8">
-        <f t="shared" si="46"/>
-        <v>7375.2302344320924</v>
+        <f t="shared" si="55"/>
+        <v>14764.169893142427</v>
       </c>
       <c r="AZ16" s="8">
-        <f t="shared" si="46"/>
-        <v>7227.7256297434506</v>
+        <f t="shared" si="55"/>
+        <v>14616.528194211003</v>
       </c>
       <c r="BA16" s="8">
-        <f t="shared" si="46"/>
-        <v>7083.1711171485813</v>
+        <f t="shared" si="55"/>
+        <v>14470.362912268893</v>
       </c>
       <c r="BB16" s="8">
-        <f t="shared" si="46"/>
-        <v>6941.5076948056094</v>
+        <f t="shared" si="55"/>
+        <v>14325.659283146204</v>
       </c>
       <c r="BC16" s="8">
-        <f t="shared" si="46"/>
-        <v>6802.6775409094971</v>
+        <f t="shared" si="55"/>
+        <v>14182.402690314742</v>
       </c>
       <c r="BD16" s="8">
-        <f t="shared" si="46"/>
-        <v>6666.623990091307</v>
+        <f t="shared" si="55"/>
+        <v>14040.578663411596</v>
       </c>
       <c r="BE16" s="8">
-        <f t="shared" si="46"/>
-        <v>6533.2915102894804</v>
+        <f t="shared" si="55"/>
+        <v>13900.17287677748</v>
       </c>
       <c r="BF16" s="8">
-        <f t="shared" si="46"/>
-        <v>6402.6256800836909</v>
+        <f t="shared" si="55"/>
+        <v>13761.171148009706</v>
       </c>
       <c r="BG16" s="8">
-        <f t="shared" si="46"/>
-        <v>6274.5731664820169</v>
+        <f t="shared" si="55"/>
+        <v>13623.559436529609</v>
       </c>
       <c r="BH16" s="8">
-        <f t="shared" si="46"/>
-        <v>6149.0817031523766</v>
+        <f t="shared" si="55"/>
+        <v>13487.323842164313</v>
       </c>
       <c r="BI16" s="8">
-        <f t="shared" si="46"/>
-        <v>6026.1000690893288</v>
+        <f t="shared" si="55"/>
+        <v>13352.450603742669</v>
       </c>
       <c r="BJ16" s="8">
-        <f t="shared" si="46"/>
-        <v>5905.5780677075418</v>
+        <f t="shared" si="55"/>
+        <v>13218.926097705242</v>
       </c>
       <c r="BK16" s="8">
-        <f t="shared" si="46"/>
-        <v>5787.4665063533912</v>
+        <f t="shared" si="55"/>
+        <v>13086.736836728189</v>
       </c>
       <c r="BL16" s="8">
-        <f t="shared" si="46"/>
-        <v>5671.7171762263233</v>
+        <f t="shared" si="55"/>
+        <v>12955.869468360906</v>
       </c>
       <c r="BM16" s="8">
-        <f t="shared" si="46"/>
-        <v>5558.2828327017969</v>
+        <f t="shared" si="55"/>
+        <v>12826.310773677298</v>
       </c>
       <c r="BN16" s="8">
-        <f t="shared" si="46"/>
-        <v>5447.1171760477609</v>
+        <f t="shared" si="55"/>
+        <v>12698.047665940525</v>
       </c>
       <c r="BO16" s="8">
-        <f t="shared" si="46"/>
-        <v>5338.1748325268054</v>
+        <f t="shared" si="55"/>
+        <v>12571.067189281119</v>
       </c>
       <c r="BP16" s="8">
-        <f t="shared" si="46"/>
-        <v>5231.4113358762688</v>
+        <f t="shared" si="55"/>
+        <v>12445.356517388307</v>
       </c>
       <c r="BQ16" s="8">
-        <f t="shared" si="46"/>
-        <v>5126.7831091587432</v>
+        <f t="shared" si="55"/>
+        <v>12320.902952214425</v>
       </c>
       <c r="BR16" s="8">
-        <f t="shared" si="46"/>
-        <v>5024.247446975568</v>
+        <f t="shared" si="55"/>
+        <v>12197.69392269228</v>
       </c>
       <c r="BS16" s="8">
-        <f t="shared" si="46"/>
-        <v>4923.762498036057</v>
+        <f t="shared" si="55"/>
+        <v>12075.716983465358</v>
       </c>
       <c r="BT16" s="8">
-        <f t="shared" si="46"/>
-        <v>4825.2872480753358</v>
+        <f t="shared" si="55"/>
+        <v>11954.959813630705</v>
       </c>
       <c r="BU16" s="8">
-        <f t="shared" si="46"/>
-        <v>4728.7815031138289</v>
+        <f t="shared" si="55"/>
+        <v>11835.410215494398</v>
       </c>
       <c r="BV16" s="8">
-        <f t="shared" si="46"/>
-        <v>4634.2058730515519</v>
+        <f t="shared" si="55"/>
+        <v>11717.056113339453</v>
       </c>
       <c r="BW16" s="8">
-        <f t="shared" si="46"/>
-        <v>4541.521755590521</v>
+        <f t="shared" si="55"/>
+        <v>11599.885552206058</v>
       </c>
       <c r="BX16" s="8">
-        <f t="shared" si="46"/>
-        <v>4450.6913204787106</v>
+        <f t="shared" si="55"/>
+        <v>11483.886696683998</v>
       </c>
       <c r="BY16" s="8">
-        <f t="shared" si="46"/>
-        <v>4361.6774940691366</v>
+        <f t="shared" si="55"/>
+        <v>11369.047829717158</v>
       </c>
       <c r="BZ16" s="8">
-        <f t="shared" si="46"/>
-        <v>4274.4439441877539</v>
+        <f t="shared" si="55"/>
+        <v>11255.357351419985</v>
       </c>
       <c r="CA16" s="8">
-        <f t="shared" si="46"/>
-        <v>4188.9550653039987</v>
+        <f t="shared" si="55"/>
+        <v>11142.803777905785</v>
       </c>
       <c r="CB16" s="8">
-        <f t="shared" si="46"/>
-        <v>4105.1759639979191</v>
+        <f t="shared" si="55"/>
+        <v>11031.375740126727</v>
       </c>
       <c r="CC16" s="8">
-        <f t="shared" si="46"/>
-        <v>4023.0724447179605</v>
+        <f t="shared" si="55"/>
+        <v>10921.06198272546</v>
       </c>
       <c r="CD16" s="8">
-        <f t="shared" si="46"/>
-        <v>3942.6109958236011</v>
+        <f t="shared" si="55"/>
+        <v>10811.851362898205</v>
       </c>
       <c r="CE16" s="8">
-        <f t="shared" si="46"/>
-        <v>3863.7587759071289</v>
+        <f t="shared" si="55"/>
+        <v>10703.732849269223</v>
       </c>
       <c r="CF16" s="8">
-        <f t="shared" si="46"/>
-        <v>3786.4836003889864</v>
+        <f t="shared" si="55"/>
+        <v>10596.695520776531</v>
       </c>
       <c r="CG16" s="8">
-        <f t="shared" si="46"/>
-        <v>3710.7539283812066</v>
+        <f t="shared" si="55"/>
+        <v>10490.728565568766</v>
       </c>
       <c r="CH16" s="8">
-        <f t="shared" si="46"/>
-        <v>3636.5388498135826</v>
+        <f t="shared" si="55"/>
+        <v>10385.821279913078</v>
       </c>
       <c r="CI16" s="8">
-        <f t="shared" si="46"/>
-        <v>3563.8080728173109</v>
+        <f t="shared" si="55"/>
+        <v>10281.963067113948</v>
       </c>
       <c r="CJ16" s="8">
-        <f t="shared" si="46"/>
-        <v>3492.5319113609644</v>
+        <f t="shared" si="55"/>
+        <v>10179.143436442808</v>
       </c>
       <c r="CK16" s="8">
-        <f t="shared" si="46"/>
-        <v>3422.681273133745</v>
+        <f t="shared" si="55"/>
+        <v>10077.35200207838</v>
       </c>
       <c r="CL16" s="8">
-        <f t="shared" si="46"/>
-        <v>3354.2276476710699</v>
+        <f t="shared" si="55"/>
+        <v>9976.5784820575955</v>
       </c>
       <c r="CM16" s="8">
-        <f t="shared" si="46"/>
-        <v>3287.1430947176486</v>
+        <f t="shared" si="55"/>
+        <v>9876.8126972370192</v>
       </c>
       <c r="CN16" s="8">
-        <f t="shared" si="46"/>
-        <v>3221.4002328232955</v>
+        <f t="shared" si="55"/>
+        <v>9778.0445702646484</v>
       </c>
       <c r="CO16" s="8">
-        <f t="shared" si="46"/>
-        <v>3156.9722281668296</v>
+        <f t="shared" si="55"/>
+        <v>9680.2641245620016</v>
       </c>
       <c r="CP16" s="8">
-        <f t="shared" si="46"/>
-        <v>3093.8327836034928</v>
+        <f t="shared" si="55"/>
+        <v>9583.4614833163814</v>
       </c>
       <c r="CQ16" s="8">
-        <f t="shared" ref="CQ16:CX16" si="47">+CP16*(1+$AF21)</f>
-        <v>3031.956127931423</v>
+        <f t="shared" ref="CQ16:CX16" si="56">+CP16*(1+$AF21)</f>
+        <v>9487.6268684832175</v>
       </c>
       <c r="CR16" s="8">
-        <f t="shared" si="47"/>
-        <v>2971.3170053727945</v>
+        <f t="shared" si="56"/>
+        <v>9392.7505997983844</v>
       </c>
       <c r="CS16" s="8">
-        <f t="shared" si="47"/>
-        <v>2911.8906652653386</v>
+        <f t="shared" si="56"/>
+        <v>9298.8230938003999</v>
       </c>
       <c r="CT16" s="8">
-        <f t="shared" si="47"/>
-        <v>2853.652851960032</v>
+        <f t="shared" si="56"/>
+        <v>9205.8348628623953</v>
       </c>
       <c r="CU16" s="8">
-        <f t="shared" si="47"/>
-        <v>2796.5797949208313</v>
+        <f t="shared" si="56"/>
+        <v>9113.7765142337721</v>
       </c>
       <c r="CV16" s="8">
-        <f t="shared" si="47"/>
-        <v>2740.6481990224147</v>
+        <f t="shared" si="56"/>
+        <v>9022.6387490914349</v>
       </c>
       <c r="CW16" s="8">
-        <f t="shared" si="47"/>
-        <v>2685.8352350419664</v>
+        <f t="shared" si="56"/>
+        <v>8932.4123616005199</v>
       </c>
       <c r="CX16" s="8">
-        <f t="shared" si="47"/>
-        <v>2632.1185303411271</v>
+        <f t="shared" si="56"/>
+        <v>8843.0882379845152</v>
       </c>
     </row>
     <row r="17" spans="2:32" x14ac:dyDescent="0.2">
@@ -2763,83 +2806,83 @@
         <v>38</v>
       </c>
       <c r="C17" s="3">
-        <f t="shared" ref="C17:M17" si="48">+C16/C18</f>
+        <f t="shared" ref="C17:M17" si="57">+C16/C18</f>
         <v>2.9763572679509633</v>
       </c>
       <c r="D17" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="57"/>
         <v>2.5736842105263156</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="57"/>
         <v>3.2892416225749561</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="57"/>
         <v>2.5798764342453664</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="57"/>
         <v>2.0168589174800355</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="57"/>
         <v>1.5155832591273375</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="57"/>
         <v>1.5299823633156966</v>
       </c>
       <c r="J17" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="57"/>
         <v>1.448</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="57"/>
         <v>2.4942324755989351</v>
       </c>
       <c r="L17" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="57"/>
         <v>2.0132743362831858</v>
       </c>
       <c r="M17" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="57"/>
         <v>1.8589065255731922</v>
       </c>
       <c r="N17" s="3">
-        <f t="shared" ref="N17:R17" si="49">+N16/N18</f>
+        <f t="shared" ref="N17:R17" si="58">+N16/N18</f>
         <v>2.5705467372134039</v>
       </c>
       <c r="O17" s="3">
-        <f t="shared" si="49"/>
-        <v>2.4006809229864792</v>
+        <f t="shared" si="58"/>
+        <v>2.8076315402704295</v>
       </c>
       <c r="P17" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="58"/>
         <v>2.424687732216344</v>
       </c>
       <c r="Q17" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="58"/>
         <v>2.4489346095385072</v>
       </c>
       <c r="R17" s="3">
-        <f t="shared" si="49"/>
+        <f t="shared" si="58"/>
         <v>2.4734239556338924</v>
       </c>
       <c r="S17" s="3">
-        <f t="shared" ref="S17" si="50">+S16/S18</f>
+        <f t="shared" ref="S17" si="59">+S16/S18</f>
         <v>2.4981581951902316</v>
       </c>
       <c r="T17" s="3">
-        <f t="shared" ref="T17" si="51">+T16/T18</f>
+        <f t="shared" ref="T17" si="60">+T16/T18</f>
         <v>2.5231397771421329</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" ref="U17" si="52">+U16/U18</f>
+        <f t="shared" ref="U17" si="61">+U16/U18</f>
         <v>2.5483711749135538</v>
       </c>
       <c r="V17" s="3">
-        <f t="shared" ref="V17" si="53">+V16/V18</f>
+        <f t="shared" ref="V17" si="62">+V16/V18</f>
         <v>2.5738548866626902</v>
       </c>
       <c r="Y17" s="3">
@@ -2855,11 +2898,11 @@
         <v>9.4293634952317582</v>
       </c>
       <c r="AB17" s="3">
-        <f t="shared" ref="AB17" si="54">+AB16/AB18</f>
-        <v>9.7908969600580171</v>
+        <f t="shared" ref="AB17" si="63">+AB16/AB18</f>
+        <v>9.5044918818176853</v>
       </c>
       <c r="AC17" s="3">
-        <f t="shared" ref="AC17" si="55">+AC16/AC18</f>
+        <f t="shared" ref="AC17" si="64">+AC16/AC18</f>
         <v>10.188446638133184</v>
       </c>
     </row>
@@ -2940,11 +2983,11 @@
         <v>1127.25</v>
       </c>
       <c r="AB18" s="2">
-        <f t="shared" ref="AB18" si="56">+AVERAGE(I18:L18)</f>
+        <f t="shared" ref="AB18" si="65">+AVERAGE(I18:L18)</f>
         <v>1129</v>
       </c>
       <c r="AC18" s="2">
-        <f t="shared" ref="AC18" si="57">+AVERAGE(J18:M18)</f>
+        <f t="shared" ref="AC18" si="66">+AVERAGE(J18:M18)</f>
         <v>1129</v>
       </c>
     </row>
@@ -2955,31 +2998,31 @@
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9">
-        <f t="shared" ref="G20:M20" si="58">+G5/C5-1</f>
+        <f t="shared" ref="G20:M20" si="67">+G5/C5-1</f>
         <v>-0.11602055114432508</v>
       </c>
       <c r="H20" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>-0.16920458616983158</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>-0.22723116313094371</v>
       </c>
       <c r="J20" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>-0.24262899262899262</v>
       </c>
       <c r="K20" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>4.9878474056852973E-2</v>
       </c>
       <c r="L20" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>1.2291105121293722E-2</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" si="58"/>
+        <f t="shared" si="67"/>
         <v>0.11146609868654589</v>
       </c>
       <c r="N20" s="9">
@@ -2987,19 +3030,19 @@
         <v>0.1868844861545591</v>
       </c>
       <c r="O20" s="9">
-        <f t="shared" ref="O20:R20" si="59">+O5/K5-1</f>
-        <v>-1.9963093440696911E-3</v>
+        <f t="shared" ref="O20:R20" si="68">+O5/K5-1</f>
+        <v>7.7000503271263288E-2</v>
       </c>
       <c r="P20" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="68"/>
         <v>6.66011644832607E-2</v>
       </c>
       <c r="Q20" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="68"/>
         <v>7.6808422939068199E-2</v>
       </c>
       <c r="R20" s="9">
-        <f t="shared" si="59"/>
+        <f t="shared" si="68"/>
         <v>-2.7717559709747874E-3</v>
       </c>
       <c r="Z20" s="9">
@@ -3028,70 +3071,70 @@
         <v>0.59803829985987855</v>
       </c>
       <c r="D21" s="9">
-        <f t="shared" ref="D21:N21" si="60">+D7/D5</f>
+        <f t="shared" ref="D21:N21" si="69">+D7/D5</f>
         <v>0.58366176997491936</v>
       </c>
       <c r="E21" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>0.55961960497439645</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>0.57283257283257283</v>
       </c>
       <c r="G21" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>0.57265137905526786</v>
       </c>
       <c r="H21" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>0.55223719676549865</v>
       </c>
       <c r="I21" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>0.55129570465033728</v>
       </c>
       <c r="J21" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>0.55045765264743363</v>
       </c>
       <c r="K21" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>0.56597886260694519</v>
       </c>
       <c r="L21" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>0.56267973160080942</v>
       </c>
       <c r="M21" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>0.555626530394975</v>
       </c>
       <c r="N21" s="9">
-        <f t="shared" si="60"/>
+        <f t="shared" si="69"/>
         <v>0.56393986723935963</v>
       </c>
       <c r="O21" s="9">
-        <f t="shared" ref="O21:R21" si="61">+O7/O5</f>
+        <f t="shared" ref="O21:R21" si="70">+O7/O5</f>
         <v>0.56000000000000005</v>
       </c>
       <c r="P21" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="70"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="Q21" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="70"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="R21" s="9">
-        <f t="shared" si="61"/>
+        <f t="shared" si="70"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="AE21" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AF21" s="9">
-        <v>-0.02</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="22" spans="2:32" x14ac:dyDescent="0.2">
@@ -3103,63 +3146,63 @@
         <v>0.31751517982251287</v>
       </c>
       <c r="D22" s="9">
-        <f t="shared" ref="D22:N22" si="62">+D16/D5</f>
+        <f t="shared" ref="D22:N22" si="71">+D16/D5</f>
         <v>0.26280902902185599</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>0.34107534747622531</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>0.2564935064935065</v>
       </c>
       <c r="G22" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>0.24019866849836205</v>
       </c>
       <c r="H22" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>0.18350404312668464</v>
       </c>
       <c r="I22" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>0.20530114779316058</v>
       </c>
       <c r="J22" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>0.18873826903023982</v>
       </c>
       <c r="K22" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>0.28293910417715146</v>
       </c>
       <c r="L22" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>0.24230482479497284</v>
       </c>
       <c r="M22" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>0.22442244224422442</v>
       </c>
       <c r="N22" s="9">
-        <f t="shared" si="62"/>
+        <f t="shared" si="71"/>
         <v>0.28455681374463099</v>
       </c>
       <c r="O22" s="9">
-        <f t="shared" ref="O22:R22" si="63">+O16/O5</f>
+        <f t="shared" ref="O22:R22" si="72">+O16/O5</f>
+        <v>0.29755646417445486</v>
+      </c>
+      <c r="P22" s="9">
+        <f t="shared" si="72"/>
         <v>0.27456645543023317</v>
       </c>
-      <c r="P22" s="9">
-        <f t="shared" si="63"/>
+      <c r="Q22" s="9">
+        <f t="shared" si="72"/>
         <v>0.27456645543023317</v>
       </c>
-      <c r="Q22" s="9">
-        <f t="shared" si="63"/>
-        <v>0.27456645543023317</v>
-      </c>
       <c r="R22" s="9">
-        <f t="shared" si="63"/>
+        <f t="shared" si="72"/>
         <v>0.27456645543023317</v>
       </c>
       <c r="AE22" s="1" t="s">
@@ -3178,63 +3221,63 @@
         <v>0.18028958430639888</v>
       </c>
       <c r="D23" s="9">
-        <f t="shared" ref="D23:N23" si="64">+D8/D5</f>
+        <f t="shared" ref="D23:N23" si="73">+D8/D5</f>
         <v>0.18219276245073451</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0.18763716166788588</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0.19120744120744121</v>
       </c>
       <c r="G23" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0.23787382436859347</v>
       </c>
       <c r="H23" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0.23827493261455526</v>
       </c>
       <c r="I23" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0.26292746420541946</v>
       </c>
       <c r="J23" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0.24736415247364152</v>
       </c>
       <c r="K23" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0.21097131353799697</v>
       </c>
       <c r="L23" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0.2381510277984876</v>
       </c>
       <c r="M23" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0.24049824337272438</v>
       </c>
       <c r="N23" s="9">
-        <f t="shared" si="64"/>
+        <f t="shared" si="73"/>
         <v>0.2247169074580242</v>
       </c>
       <c r="O23" s="9">
-        <f t="shared" ref="O23:R23" si="65">+O8/O5</f>
+        <f t="shared" ref="O23:R23" si="74">+O8/O5</f>
+        <v>0.20176012461059192</v>
+      </c>
+      <c r="P23" s="9">
+        <f t="shared" si="74"/>
         <v>0.21773041300364759</v>
       </c>
-      <c r="P23" s="9">
-        <f t="shared" si="65"/>
+      <c r="Q23" s="9">
+        <f t="shared" si="74"/>
         <v>0.21773041300364759</v>
       </c>
-      <c r="Q23" s="9">
-        <f t="shared" si="65"/>
-        <v>0.21773041300364759</v>
-      </c>
       <c r="R23" s="9">
-        <f t="shared" si="65"/>
+        <f t="shared" si="74"/>
         <v>0.21773041300364765</v>
       </c>
       <c r="AE23" s="1" t="s">
@@ -3242,7 +3285,7 @@
       </c>
       <c r="AF23" s="10">
         <f>+NPV(AF22,Y16:CX16)</f>
-        <v>150011.20722235966</v>
+        <v>222070.26891303537</v>
       </c>
     </row>
     <row r="24" spans="2:32" x14ac:dyDescent="0.2">
@@ -3254,47 +3297,47 @@
         <v>0.12060041407867494</v>
       </c>
       <c r="D24" s="9">
-        <f t="shared" ref="D24:N24" si="66">+D15/D12*-1</f>
+        <f t="shared" ref="D24:N24" si="75">+D15/D12*-1</f>
         <v>0.12674961119751166</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0.11381932021466905</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>0.14920894708128751</v>
       </c>
       <c r="G24" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>3.9756592292089249E-2</v>
       </c>
       <c r="H24" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>9.2344497607655507E-2</v>
       </c>
       <c r="I24" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>1.2068019747668678E-2</v>
       </c>
       <c r="J24" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>-0.1481218993621545</v>
       </c>
       <c r="K24" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>5.1571038251366122E-2</v>
       </c>
       <c r="L24" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>9.5299145299145294E-2</v>
       </c>
       <c r="M24" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>7.6992345790184602E-2</v>
       </c>
       <c r="N24" s="9">
-        <f t="shared" si="66"/>
+        <f t="shared" si="75"/>
         <v>-0.12320805889190237</v>
       </c>
       <c r="O24" s="9">
@@ -3302,15 +3345,15 @@
         <v>5.0589997775516322E-2</v>
       </c>
       <c r="P24" s="9">
-        <f t="shared" ref="P24:R24" si="67">+AVERAGE(D24:O24)</f>
+        <f t="shared" ref="P24:R24" si="76">+AVERAGE(D24:O24)</f>
         <v>4.475579641691977E-2</v>
       </c>
       <c r="Q24" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>3.7922978518537105E-2</v>
       </c>
       <c r="R24" s="9">
-        <f t="shared" si="67"/>
+        <f t="shared" si="76"/>
         <v>3.1598283377192782E-2</v>
       </c>
       <c r="AE24" s="1" t="s">
@@ -3318,7 +3361,7 @@
       </c>
       <c r="AF24" s="3">
         <f>+AF23/Main!J4</f>
-        <v>135.02358885900961</v>
+        <v>199.8832303447663</v>
       </c>
     </row>
     <row r="25" spans="2:32" x14ac:dyDescent="0.2">
@@ -3332,7 +3375,7 @@
         <v>56</v>
       </c>
       <c r="AF25" s="1">
-        <v>164.56</v>
+        <v>171.9</v>
       </c>
     </row>
     <row r="26" spans="2:32" x14ac:dyDescent="0.2">
@@ -3341,8 +3384,81 @@
       </c>
       <c r="AF26" s="9">
         <f>+AF24/AF25-1</f>
-        <v>-0.17948718486260573</v>
-      </c>
+        <v>0.16278784377409128</v>
+      </c>
+    </row>
+    <row r="27" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>12986</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>7339</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>10110</v>
+      </c>
+    </row>
+    <row r="28" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>9096</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>11299</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>12202</v>
+      </c>
+    </row>
+    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>-2262</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>-1450</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>-1041</v>
+      </c>
+    </row>
+    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y30" s="2">
+        <f>+Y28+Y29</f>
+        <v>6834</v>
+      </c>
+      <c r="Z30" s="2">
+        <f>+Z28+Z29</f>
+        <v>9849</v>
+      </c>
+      <c r="AA30" s="2">
+        <f>+AA28+AA29</f>
+        <v>11161</v>
+      </c>
+      <c r="AB30" s="2">
+        <f>+AB5*0.29</f>
+        <v>11675.270268065</v>
+      </c>
+    </row>
+    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA31" s="9"/>
+      <c r="AB31" s="9"/>
+    </row>
+    <row r="32" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="AA32" s="2"/>
+    </row>
+    <row r="33" spans="27:27" x14ac:dyDescent="0.2">
+      <c r="AA33" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
